--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>945.3090876972303</v>
       </c>
       <c r="E3" t="n">
-        <v>456.8215479417581</v>
+        <v>456.9616189638858</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.26981602320492</v>
+        <v>10.26993056243894</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537.1093359990413</v>
+        <v>537.1074364037736</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>958.1892414852099</v>
+        <v>958.1855206045661</v>
       </c>
       <c r="E5" t="n">
-        <v>467.091363964963</v>
+        <v>467.2315495263247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787250312676358</v>
+        <v>0.7787254860105842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211403076607235</v>
+        <v>0.121141046724311</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03146024065643235</v>
+        <v>0.03145984791222479</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06212620146805532</v>
+        <v>0.06212541432805169</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548218947153096</v>
+        <v>0.006548205024828321</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.5957536397137</v>
+        <v>463.5973786478559</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>874.1396518040289</v>
+        <v>874.1400058723855</v>
       </c>
       <c r="E6" t="n">
-        <v>467.091363964963</v>
+        <v>467.2315495263247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787250312676358</v>
+        <v>0.7787254860105842</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211403076607235</v>
+        <v>0.121141046724311</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03146024065643235</v>
+        <v>0.03145984791222479</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06212620146805532</v>
+        <v>0.06212541432805169</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548218947153096</v>
+        <v>0.006548205024828321</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.2704682489634</v>
+        <v>294.2958594274468</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9876797699087</v>
+        <v>686.013941862484</v>
       </c>
       <c r="E7" t="n">
-        <v>467.091363964963</v>
+        <v>467.2315495263247</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787250312676358</v>
+        <v>0.7787254860105842</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211403076607235</v>
+        <v>0.121141046724311</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03146024065643235</v>
+        <v>0.03145984791222479</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06212620146805532</v>
+        <v>0.06212541432805169</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548218947153096</v>
+        <v>0.006548205024828321</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.6261681313607</v>
+        <v>228.6370961371279</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.9934380792338</v>
+        <v>615.0038113461652</v>
       </c>
       <c r="E8" t="n">
-        <v>467.091363964963</v>
+        <v>467.2315495263247</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787250312676358</v>
+        <v>0.7787254860105842</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211403076607235</v>
+        <v>0.121141046724311</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03146024065643235</v>
+        <v>0.03145984791222479</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06212620146805532</v>
+        <v>0.06212541432805169</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548218947153096</v>
+        <v>0.006548205024828321</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.7043403709449</v>
+        <v>227.7152762582874</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.0034700484706</v>
+        <v>614.0138500434678</v>
       </c>
       <c r="E9" t="n">
-        <v>467.091363964963</v>
+        <v>467.2315495263247</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787250312676358</v>
+        <v>0.7787254860105842</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211403076607235</v>
+        <v>0.121141046724311</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03146024065643235</v>
+        <v>0.03145984791222479</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06212620146805532</v>
+        <v>0.06212541432805169</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548218947153096</v>
+        <v>0.006548205024828321</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.7604337374578</v>
+        <v>168.7754434974211</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.0649177015886</v>
+        <v>551.0795241939512</v>
       </c>
       <c r="E10" t="n">
-        <v>467.091363964963</v>
+        <v>467.2315495263247</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787250312676358</v>
+        <v>0.7787254860105842</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211403076607235</v>
+        <v>0.121141046724311</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03146024065643235</v>
+        <v>0.03145984791222479</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06212620146805532</v>
+        <v>0.06212541432805169</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548218947153096</v>
+        <v>0.006548205024828321</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.2928827452462</v>
+        <v>105.2945209905249</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.9896283944216</v>
+        <v>483.9900454192406</v>
       </c>
       <c r="E11" t="n">
-        <v>467.091363964963</v>
+        <v>467.2315495263247</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787250312676358</v>
+        <v>0.7787254860105842</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211403076607235</v>
+        <v>0.121141046724311</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03146024065643235</v>
+        <v>0.03145984791222479</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06212620146805532</v>
+        <v>0.06212541432805169</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548218947153096</v>
+        <v>0.006548205024828321</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.734851480476358</v>
+        <v>9.73496005325209</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5349645427285695</v>
+        <v>0.5349705091868602</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038312</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572010687598148</v>
+        <v>3.572036750220189</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944158</v>
+        <v>0.05094889585944185</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.720070006527962</v>
+        <v>0.7195333467741588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7607148351250558</v>
+        <v>0.76008172279875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9465702169586162</v>
+        <v>0.9466526100966023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7092829799034889</v>
+        <v>0.7100193119384354</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.17429993736243</v>
+        <v>50.19184048520368</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.32761940307598</v>
+        <v>33.33628495618809</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493833380762454</v>
+        <v>0.8493833075872784</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.56187710529307</v>
+        <v>11.56510913961791</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.829128644947382</v>
+        <v>0.8291192350305873</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.070012151637922</v>
+        <v>4.072283894773241</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149550230203721</v>
+        <v>0.8149559089010243</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.214791277355462</v>
+        <v>1.218162494624446</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3435898908452887</v>
+        <v>0.3440413052750578</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1126471140864122</v>
+        <v>0.1127702416767919</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1256861612952027</v>
+        <v>0.1258225276285286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8962570972458513</v>
+        <v>0.8962643161145871</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40853.3756208763</v>
+        <v>40853.79710813431</v>
       </c>
       <c r="C2" t="n">
-        <v>41266.03598068313</v>
+        <v>41266.4617253882</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89959.80953594492</v>
+        <v>89951.30758321722</v>
       </c>
       <c r="C3" t="n">
-        <v>90868.49448075244</v>
+        <v>90859.90664971436</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38360.89513015808</v>
+        <v>38365.51561601466</v>
       </c>
       <c r="C4" t="n">
-        <v>38748.3789193516</v>
+        <v>38753.04607678248</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.4680149001708</v>
+        <v>510.4708054098793</v>
       </c>
       <c r="C5" t="n">
-        <v>515.62425747492</v>
+        <v>515.6270761715953</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32536.91550315556</v>
+        <v>32538.2073131174</v>
       </c>
       <c r="C6" t="n">
-        <v>32865.57121530864</v>
+        <v>32866.87607385596</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37310.84276720275</v>
+        <v>37315.6317881392</v>
       </c>
       <c r="C7" t="n">
-        <v>37687.71996687147</v>
+        <v>37692.55736175677</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.58770402034331</v>
+        <v>38.59878399424781</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97.19700997810214</v>
+        <v>97.18659705009883</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.60042787958926</v>
+        <v>8.599760833688077</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.9542081484198</v>
+        <v>511.9425109694922</v>
       </c>
       <c r="C3" t="n">
-        <v>6.692837919011833</v>
+        <v>6.695341628216934</v>
       </c>
       <c r="D3" t="n">
-        <v>3443.76853184884</v>
+        <v>3443.712841707158</v>
       </c>
       <c r="E3" t="n">
-        <v>57.84626745014421</v>
+        <v>57.86137997605589</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.3520284425629</v>
+        <v>286.3763083978258</v>
       </c>
       <c r="C4" t="n">
-        <v>7.054285205473781</v>
+        <v>7.056812107423845</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.92122199095</v>
+        <v>2771.88810602537</v>
       </c>
       <c r="E4" t="n">
-        <v>57.84626745014421</v>
+        <v>57.86137997605589</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.8889936401565</v>
+        <v>285.9114395620613</v>
       </c>
       <c r="C5" t="n">
-        <v>7.054285205473781</v>
+        <v>7.056812107423845</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.944966207831</v>
+        <v>1268.064390787952</v>
       </c>
       <c r="E5" t="n">
-        <v>57.84626745014421</v>
+        <v>57.86137997605589</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.90399479476</v>
+        <v>164.8988445166131</v>
       </c>
       <c r="C6" t="n">
-        <v>7.054285205473781</v>
+        <v>7.056812107423845</v>
       </c>
       <c r="D6" t="n">
-        <v>700.4425907966672</v>
+        <v>700.4217584782931</v>
       </c>
       <c r="E6" t="n">
-        <v>57.84626745014421</v>
+        <v>57.86137997605589</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.201903499211</v>
+        <v>158.215593756468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5904714521687178</v>
+        <v>0.5906790102913514</v>
       </c>
       <c r="D7" t="n">
-        <v>667.6666707981786</v>
+        <v>667.726071802447</v>
       </c>
       <c r="E7" t="n">
-        <v>57.84626745014421</v>
+        <v>57.86137997605589</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.822257919609</v>
+        <v>170.8359631972125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5842625619744839</v>
+        <v>0.5844531585812589</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.057622716763</v>
+        <v>2786.074433039018</v>
       </c>
       <c r="E8" t="n">
-        <v>14.95329209171206</v>
+        <v>14.95682555828864</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.2019033763539</v>
+        <v>158.2155936335829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5904714521687178</v>
+        <v>0.5906790102913514</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.44590244342</v>
+        <v>2755.461222858841</v>
       </c>
       <c r="E9" t="n">
-        <v>14.95329209171206</v>
+        <v>14.95682555828864</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.201903499211</v>
+        <v>158.215593756468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5904714521687178</v>
+        <v>0.5906790102913514</v>
       </c>
       <c r="D10" t="n">
-        <v>696.6907075657379</v>
+        <v>696.7633998148078</v>
       </c>
       <c r="E10" t="n">
-        <v>72.79955954185627</v>
+        <v>72.81820553434454</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.201903499211</v>
+        <v>158.215593756468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5904714521687178</v>
+        <v>0.5906790102913514</v>
       </c>
       <c r="D11" t="n">
-        <v>696.6907075657379</v>
+        <v>696.7633998148078</v>
       </c>
       <c r="E11" t="n">
-        <v>72.8041941436997</v>
+        <v>72.81820553434454</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.51734231399149</v>
+        <v>64.50359020669333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5904714521687178</v>
+        <v>0.5906790102913514</v>
       </c>
       <c r="D12" t="n">
-        <v>270.6520167795113</v>
+        <v>270.5944536583867</v>
       </c>
       <c r="E12" t="n">
-        <v>72.79955954185627</v>
+        <v>72.81820553434454</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.51780452691276</v>
+        <v>64.50457960357926</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.6539514969306</v>
+        <v>270.5985950403295</v>
       </c>
       <c r="E13" t="n">
-        <v>72.79785380176233</v>
+        <v>72.82438078274664</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.04028036552347</v>
+        <v>64.02536947649128</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>268.6552021319833</v>
+        <v>268.5927921985415</v>
       </c>
       <c r="E14" t="n">
-        <v>63.84042851857663</v>
+        <v>63.86648614174355</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.9229492623989</v>
+        <v>102.9141077045374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1124642211149974</v>
+        <v>0.1124293679943425</v>
       </c>
       <c r="D15" t="n">
-        <v>431.5016227167459</v>
+        <v>431.4642931601732</v>
       </c>
       <c r="E15" t="n">
-        <v>59.44112719576828</v>
+        <v>59.4425731953967</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.22646959461474</v>
+        <v>67.22543185152375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112464055037343</v>
+        <v>0.1124295162441673</v>
       </c>
       <c r="D16" t="n">
-        <v>281.5126435018736</v>
+        <v>281.5082684880551</v>
       </c>
       <c r="E16" t="n">
-        <v>59.4400840203896</v>
+        <v>59.44344532081315</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>623.6501068690393</v>
+        <v>623.6442501170004</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.56177378631979</v>
+        <v>78.56103600591419</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.7323804036224</v>
+        <v>84.72831416999718</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>354.774476749967</v>
+        <v>354.7574514297782</v>
       </c>
       <c r="E19" t="n">
-        <v>78.56177378631979</v>
+        <v>78.56103600591419</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.9960765756558</v>
+        <v>115.9956296012492</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1747331274388542</v>
+        <v>0.1747452320568152</v>
       </c>
       <c r="D20" t="n">
-        <v>2699.025657110617</v>
+        <v>2698.953739907377</v>
       </c>
       <c r="E20" t="n">
-        <v>13.59174053326092</v>
+        <v>13.60188655884136</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.4180391906173</v>
+        <v>114.4201561544686</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1659964710669115</v>
+        <v>0.1660079704539744</v>
       </c>
       <c r="D21" t="n">
-        <v>480.1263523515064</v>
+        <v>480.1353253228572</v>
       </c>
       <c r="E21" t="n">
-        <v>13.59174053326092</v>
+        <v>13.60188655884136</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.0066779707013</v>
+        <v>99.99845224079532</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>418.7279606633264</v>
+        <v>418.69351953221</v>
       </c>
       <c r="E22" t="n">
-        <v>623.6501068690393</v>
+        <v>623.6442501170004</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>623.6501068690393</v>
+        <v>623.6442501170004</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.2800994759719</v>
+        <v>61.27958724880686</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>623.6501068690393</v>
+        <v>623.6442501170004</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.3927054085449</v>
+        <v>104.3837845520885</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1183833906473657</v>
+        <v>0.1183467031519395</v>
       </c>
       <c r="D25" t="n">
-        <v>2644.931541424909</v>
+        <v>2644.819958405888</v>
       </c>
       <c r="E25" t="n">
-        <v>45.84933346079289</v>
+        <v>45.84074167643121</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>509.1524444853085</v>
+        <v>509.1406935544632</v>
       </c>
       <c r="C26" t="n">
-        <v>6.096321231142752</v>
+        <v>6.098794106919049</v>
       </c>
       <c r="D26" t="n">
-        <v>3443.76853184884</v>
+        <v>3443.712841707158</v>
       </c>
       <c r="E26" t="n">
-        <v>48.8880540513284</v>
+        <v>48.90884077160739</v>
       </c>
       <c r="F26" t="n">
-        <v>6.902169346253046</v>
+        <v>6.901919521410665</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.9758415033521</v>
+        <v>199.9554666868553</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4327027200357472</v>
+        <v>0.4328350292514833</v>
       </c>
       <c r="D27" t="n">
-        <v>2859.226015056718</v>
+        <v>2859.176281593539</v>
       </c>
       <c r="E27" t="n">
-        <v>48.8880540513284</v>
+        <v>48.90884077160739</v>
       </c>
       <c r="F27" t="n">
-        <v>7.133237899613886</v>
+        <v>7.132994933087883</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.0524809056952</v>
+        <v>168.0651144525684</v>
       </c>
       <c r="C28" t="n">
-        <v>0.496337215924638</v>
+        <v>0.4964996023874525</v>
       </c>
       <c r="D28" t="n">
-        <v>2786.057622716763</v>
+        <v>2786.074433039018</v>
       </c>
       <c r="E28" t="n">
-        <v>14.95329209171206</v>
+        <v>14.95682555828864</v>
       </c>
       <c r="F28" t="n">
-        <v>6.911567420649535</v>
+        <v>6.911460080559723</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.8899194746456</v>
+        <v>191.8784316868463</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4327027200357472</v>
+        <v>0.4328350292514833</v>
       </c>
       <c r="D29" t="n">
-        <v>2842.088087856861</v>
+        <v>2842.056416419493</v>
       </c>
       <c r="E29" t="n">
-        <v>63.84134614304045</v>
+        <v>63.86566632989603</v>
       </c>
       <c r="F29" t="n">
-        <v>7.096701628217838</v>
+        <v>7.096495930882609</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.9948264860944</v>
+        <v>115.9951818912846</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1747444714780565</v>
+        <v>0.1747464849826417</v>
       </c>
       <c r="D30" t="n">
-        <v>2699.020281106659</v>
+        <v>2698.951814835536</v>
       </c>
       <c r="E30" t="n">
-        <v>63.84134614304045</v>
+        <v>63.86566632989603</v>
       </c>
       <c r="F30" t="n">
-        <v>7.169305778850084</v>
+        <v>7.169124641302724</v>
       </c>
       <c r="G30" t="n">
-        <v>99.95334940893683</v>
+        <v>99.95023213457681</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.3915817374227</v>
+        <v>104.3831720027968</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1183787689735104</v>
+        <v>0.1183441843548845</v>
       </c>
       <c r="D31" t="n">
-        <v>2644.926605639167</v>
+        <v>2644.817165706657</v>
       </c>
       <c r="E31" t="n">
-        <v>50.24955240806506</v>
+        <v>50.26383481093054</v>
       </c>
       <c r="F31" t="n">
-        <v>7.202856429541982</v>
+        <v>7.202696874125615</v>
       </c>
       <c r="G31" t="n">
-        <v>98.32860182244512</v>
+        <v>98.32432503736048</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.56343264199455</v>
+        <v>77.50956908436262</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00867981830215332</v>
+        <v>0.008720875197739909</v>
       </c>
       <c r="D32" t="n">
-        <v>2644.926605639167</v>
+        <v>2644.817165706657</v>
       </c>
       <c r="E32" t="n">
-        <v>4.400344498187032</v>
+        <v>4.423040820930396</v>
       </c>
       <c r="F32" t="n">
-        <v>8.396552556706936</v>
+        <v>8.394066363048159</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73.91818993711291</v>
+        <v>73.75174314440773</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002408267633372989</v>
+        <v>0.002409656040941844</v>
       </c>
       <c r="D33" t="n">
-        <v>2639.103684947882</v>
+        <v>2638.789519398088</v>
       </c>
       <c r="E33" t="n">
-        <v>4.400344498187032</v>
+        <v>4.423040820930396</v>
       </c>
       <c r="F33" t="n">
-        <v>8.970979232103391</v>
+        <v>8.969807954935627</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.46977653685167</v>
+        <v>20.47911475166387</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002408267633372989</v>
+        <v>0.002409656040941844</v>
       </c>
       <c r="D34" t="n">
-        <v>85.8798477434746</v>
+        <v>85.91892045973121</v>
       </c>
       <c r="E34" t="n">
-        <v>4.400344498187032</v>
+        <v>4.423040820930396</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.48935480627301</v>
+        <v>22.49870068921587</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>94.97621049203669</v>
+        <v>95.01528303902595</v>
       </c>
       <c r="E35" t="n">
-        <v>4.400344498187032</v>
+        <v>4.423040820930396</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.9517327402863</v>
+        <v>496.9478215119561</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3461.517464001109</v>
+        <v>3461.508838592037</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623105393097071</v>
+        <v>7.623161013903391</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>284.8992297912401</v>
       </c>
       <c r="E41" t="n">
-        <v>8.957425283185696</v>
+        <v>8.95789464100309</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.9517327402863</v>
+        <v>511.9478215119561</v>
       </c>
       <c r="C42" t="n">
-        <v>6.693503551654286</v>
+        <v>6.695024597573211</v>
       </c>
       <c r="D42" t="n">
-        <v>3443.755523667949</v>
+        <v>3443.729620379829</v>
       </c>
       <c r="E42" t="n">
-        <v>8.957425283185696</v>
+        <v>8.95789464100309</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980409005411948</v>
+        <v>8.980474529573586</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038312</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572010687598148</v>
+        <v>3.572036750220189</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944158</v>
+        <v>0.05094889585944185</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.8959646341571</v>
+        <v>1.891817550329199</v>
       </c>
       <c r="C2" t="n">
-        <v>2.121633443849342</v>
+        <v>2.116658843664461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8936344021412085</v>
+        <v>0.8937753743319328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.216542979202424</v>
+        <v>0.2171552736997564</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>134.2881043769402</v>
+        <v>134.3567513761342</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.06820541675292</v>
+        <v>32.07431618953665</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.234816774250649</v>
+        <v>6.234962428048608</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.45459336627391</v>
+        <v>40.47615186585238</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.57714615623278</v>
+        <v>28.58900554378008</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493714484239169</v>
+        <v>0.849371626311633</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.133641372665249</v>
+        <v>9.139470735033708</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8350845831472306</v>
+        <v>0.8350732934694434</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.718182980348612</v>
+        <v>2.721015061361665</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8102653981425106</v>
+        <v>0.8102863641058594</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02562285702727409</v>
+        <v>0.02666052567693432</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03187611906162659</v>
+        <v>0.03289868591409441</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04002712977414864</v>
+        <v>0.04023358301020431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04484780245285875</v>
+        <v>0.0450786538113389</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925103925933204</v>
+        <v>0.8925196208961351</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38866.24911002954</v>
+        <v>38876.02891826379</v>
       </c>
       <c r="C2" t="n">
-        <v>39258.83748487833</v>
+        <v>39268.71607905433</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87005.3196376136</v>
+        <v>87019.44806969847</v>
       </c>
       <c r="C3" t="n">
-        <v>87884.16125011475</v>
+        <v>87898.43239363482</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32829.18921310604</v>
+        <v>32846.39158007412</v>
       </c>
       <c r="C4" t="n">
-        <v>33160.79718495559</v>
+        <v>33178.17331320618</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.7814625931732</v>
+        <v>457.9157418961252</v>
       </c>
       <c r="C5" t="n">
-        <v>462.4055177708821</v>
+        <v>462.5411534304295</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29104.0737190685</v>
+        <v>29110.8535592136</v>
       </c>
       <c r="C6" t="n">
-        <v>29398.05426168535</v>
+        <v>29404.90258506425</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31016.98548712084</v>
+        <v>31032.85791357329</v>
       </c>
       <c r="C7" t="n">
-        <v>31330.28837082913</v>
+        <v>31346.3211248215</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.8571165835217</v>
+        <v>29.8783152061484</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.1237323784032</v>
+        <v>101.1026412300991</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.826193485362595</v>
+        <v>8.824773071024598</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25892.82764470222</v>
+        <v>25892.95081482154</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2402.391588019269</v>
+        <v>2403.519012869674</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17049.20995162758</v>
+        <v>17049.4001014262</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.791293676682</v>
+        <v>5906.834391663339</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.389361901204</v>
+        <v>4267.420498245902</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.70263472465</v>
+        <v>15840.81821395487</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28417.2748783218</v>
+        <v>28418.59211673378</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8106248000539673</v>
+        <v>0.8110391849338057</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.0234357187419</v>
+        <v>461.0227129503394</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.0784681523787</v>
+        <v>866.0776507242941</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.876093578122</v>
+        <v>303.890472230528</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.6113320749492</v>
+        <v>691.6270032471754</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.095204849014</v>
+        <v>235.1014542850379</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.2146037442706</v>
+        <v>617.221313993404</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.1731070974003</v>
+        <v>234.1793526680445</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.2246072883179</v>
+        <v>616.2313121255653</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.0556846398377</v>
+        <v>175.0596404224331</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1228455803779</v>
+        <v>553.1270450945754</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5261524417378</v>
+        <v>106.5213099662385</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.7625780808324</v>
+        <v>480.7574898167241</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.5216645205572</v>
+        <v>503.5163283388566</v>
       </c>
       <c r="C3" t="n">
-        <v>7.722808084979896</v>
+        <v>7.724572211071463</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.47308090905</v>
+        <v>3411.438306738732</v>
       </c>
       <c r="E3" t="n">
-        <v>62.46261726926308</v>
+        <v>62.46631145124336</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.7335626075255</v>
+        <v>295.7487967704228</v>
       </c>
       <c r="C4" t="n">
-        <v>8.08349862048343</v>
+        <v>8.085258255992976</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.435717963951</v>
+        <v>2757.409295312526</v>
       </c>
       <c r="E4" t="n">
-        <v>62.46261726926308</v>
+        <v>62.46631145124336</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.0287929205831</v>
+        <v>295.0403495316481</v>
       </c>
       <c r="C5" t="n">
-        <v>8.08349862048343</v>
+        <v>8.085258255992976</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.343511147693</v>
+        <v>1317.40655327078</v>
       </c>
       <c r="E5" t="n">
-        <v>62.46261726926308</v>
+        <v>62.46631145124336</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.4082846019227</v>
+        <v>165.4095097812146</v>
       </c>
       <c r="C6" t="n">
-        <v>8.08349862048343</v>
+        <v>8.085258255992976</v>
       </c>
       <c r="D6" t="n">
-        <v>703.2168656159384</v>
+        <v>703.2231778437441</v>
       </c>
       <c r="E6" t="n">
-        <v>62.46261726926308</v>
+        <v>62.46631145124336</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.7272449545605</v>
+        <v>163.7308223322282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6790952722860105</v>
+        <v>0.6791558888404161</v>
       </c>
       <c r="D7" t="n">
-        <v>691.6888503324307</v>
+        <v>691.7044354999485</v>
       </c>
       <c r="E7" t="n">
-        <v>62.46261726926308</v>
+        <v>62.46631145124336</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.9363929157108</v>
+        <v>175.9402662538391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.671897658339187</v>
+        <v>0.6719618199277027</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.737876891186</v>
+        <v>2791.742745605519</v>
       </c>
       <c r="E8" t="n">
-        <v>16.86305002876543</v>
+        <v>16.86275361818477</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.7272448203888</v>
+        <v>163.7308221980498</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6790952722860105</v>
+        <v>0.6791558888404161</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.468418459979</v>
+        <v>2761.472211687426</v>
       </c>
       <c r="E9" t="n">
-        <v>16.86305002876543</v>
+        <v>16.86275361818477</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.7272449545605</v>
+        <v>163.7308223322282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6790952722860105</v>
+        <v>0.6791558888404161</v>
       </c>
       <c r="D10" t="n">
-        <v>721.4645160706451</v>
+        <v>721.4875687309047</v>
       </c>
       <c r="E10" t="n">
-        <v>79.32566729802851</v>
+        <v>79.32906506942814</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.7272449545605</v>
+        <v>163.7308223322282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6790952722860105</v>
+        <v>0.6791558888404161</v>
       </c>
       <c r="D11" t="n">
-        <v>721.4645160706451</v>
+        <v>721.4875687309047</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43029206453112</v>
+        <v>79.43659691647701</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6790952722860105</v>
+        <v>0.6791558888404161</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7338654910084</v>
+        <v>251.7339163891028</v>
       </c>
       <c r="E12" t="n">
-        <v>79.43029062713782</v>
+        <v>79.43824791135719</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.84805094404959</v>
+        <v>59.84231063690333</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>251.1127016162471</v>
+        <v>251.0886866627761</v>
       </c>
       <c r="E13" t="n">
-        <v>74.708885416679</v>
+        <v>74.72403378969054</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.84805094404959</v>
+        <v>59.84231063690333</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>251.1127016162471</v>
+        <v>251.0886866627761</v>
       </c>
       <c r="E14" t="n">
-        <v>74.708885416679</v>
+        <v>74.72403378969054</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.96213816331692</v>
+        <v>99.95772626759305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1012810385564601</v>
+        <v>0.1012650893172055</v>
       </c>
       <c r="D15" t="n">
-        <v>419.0064476851014</v>
+        <v>418.9878367931184</v>
       </c>
       <c r="E15" t="n">
-        <v>62.32563591824947</v>
+        <v>62.32635487242715</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.77651460555563</v>
+        <v>66.77596051176823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1012807059763353</v>
+        <v>0.1012663535397145</v>
       </c>
       <c r="D16" t="n">
-        <v>279.6188495657377</v>
+        <v>279.6165170417416</v>
       </c>
       <c r="E16" t="n">
-        <v>62.32494993346333</v>
+        <v>62.32656166744836</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.21700699086188</v>
+        <v>83.21504341347014</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>348.4296082707387</v>
+        <v>348.4213867721995</v>
       </c>
       <c r="E19" t="n">
         <v>81.13434527881276</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.8612526240144</v>
+        <v>116.8628580596414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1797013435609649</v>
+        <v>0.1797077882014496</v>
       </c>
       <c r="D20" t="n">
-        <v>2670.73444198156</v>
+        <v>2670.699053182752</v>
       </c>
       <c r="E20" t="n">
-        <v>17.82262085269207</v>
+        <v>17.82806495484786</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.2769948220615</v>
+        <v>115.2780963290005</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1707162763829166</v>
+        <v>0.1707223987913771</v>
       </c>
       <c r="D21" t="n">
-        <v>483.7677141032566</v>
+        <v>483.7723844722206</v>
       </c>
       <c r="E21" t="n">
-        <v>17.82262085269207</v>
+        <v>17.82806495484786</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.13175468665055</v>
+        <v>97.12764601609143</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>406.6906568730059</v>
+        <v>406.6734538693748</v>
       </c>
       <c r="E22" t="n">
         <v>644.0720552148754</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.08920650258212</v>
+        <v>61.08895914894397</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.4054682240543</v>
+        <v>101.4010171443439</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1066116195331159</v>
+        <v>0.1065948308602164</v>
       </c>
       <c r="D25" t="n">
-        <v>2599.188987904255</v>
+        <v>2599.126722485125</v>
       </c>
       <c r="E25" t="n">
-        <v>44.50296040134857</v>
+        <v>44.4986923253901</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.6808750016008</v>
+        <v>500.6751793651395</v>
       </c>
       <c r="C26" t="n">
-        <v>7.133371406185379</v>
+        <v>7.135144261462536</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.47308090905</v>
+        <v>3411.438306738732</v>
       </c>
       <c r="E26" t="n">
-        <v>57.84626745014421</v>
+        <v>57.86137997605589</v>
       </c>
       <c r="F26" t="n">
-        <v>6.791828882151352</v>
+        <v>6.791675700432386</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190.2968793747961</v>
+        <v>190.2832885376377</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4928306017236488</v>
+        <v>0.4929129157849219</v>
       </c>
       <c r="D27" t="n">
-        <v>2835.331855689982</v>
+        <v>2835.29779695512</v>
       </c>
       <c r="E27" t="n">
-        <v>57.84626745014421</v>
+        <v>57.86137997605589</v>
       </c>
       <c r="F27" t="n">
-        <v>7.023709515854835</v>
+        <v>7.023561177983506</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.9677024339715</v>
+        <v>172.9722551992975</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5737571899579084</v>
+        <v>0.5738366590669163</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.737876891186</v>
+        <v>2791.742745605519</v>
       </c>
       <c r="E28" t="n">
-        <v>16.86305002876543</v>
+        <v>16.86275361818477</v>
       </c>
       <c r="F28" t="n">
-        <v>6.860056405684072</v>
+        <v>6.860005999013587</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.7642411121132</v>
+        <v>185.7558440670193</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4928306017236488</v>
+        <v>0.4929129157849219</v>
       </c>
       <c r="D29" t="n">
-        <v>2825.492019505632</v>
+        <v>2825.468869346218</v>
       </c>
       <c r="E29" t="n">
-        <v>74.70931747890964</v>
+        <v>74.72413359424067</v>
       </c>
       <c r="F29" t="n">
-        <v>7.002373042703598</v>
+        <v>7.00224785123033</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.8611051265537</v>
+        <v>116.8626283101941</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1797090173481855</v>
+        <v>0.1797178471223066</v>
       </c>
       <c r="D30" t="n">
-        <v>2670.733851509292</v>
+        <v>2670.698133529894</v>
       </c>
       <c r="E30" t="n">
-        <v>74.70931747890964</v>
+        <v>74.72413359424067</v>
       </c>
       <c r="F30" t="n">
-        <v>7.084148682511962</v>
+        <v>7.084035244558046</v>
       </c>
       <c r="G30" t="n">
-        <v>98.61597971247545</v>
+        <v>98.614259922358</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.4052090552801</v>
+        <v>101.4005323174791</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1066106419351027</v>
+        <v>0.1065930023124748</v>
       </c>
       <c r="D31" t="n">
-        <v>2599.187843320655</v>
+        <v>2599.124557527356</v>
       </c>
       <c r="E31" t="n">
-        <v>56.88664196200872</v>
+        <v>56.89647104720362</v>
       </c>
       <c r="F31" t="n">
-        <v>7.127521059745969</v>
+        <v>7.127424620737754</v>
       </c>
       <c r="G31" t="n">
-        <v>96.51110829664029</v>
+        <v>96.50864411703796</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.15177713669846</v>
+        <v>63.17586100678807</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02304274754067618</v>
+        <v>0.02306789478931686</v>
       </c>
       <c r="D32" t="n">
-        <v>2599.187843320655</v>
+        <v>2599.124557527356</v>
       </c>
       <c r="E32" t="n">
-        <v>12.38393548321567</v>
+        <v>12.39747212224217</v>
       </c>
       <c r="F32" t="n">
-        <v>7.813315512551235</v>
+        <v>7.812630127492239</v>
       </c>
       <c r="G32" t="n">
-        <v>99.3565438383805</v>
+        <v>99.35205933327556</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.49922921233474</v>
+        <v>23.5039920203202</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002897150392092007</v>
+        <v>0.002897982568112737</v>
       </c>
       <c r="D33" t="n">
-        <v>2501.093721383254</v>
+        <v>2500.865615493604</v>
       </c>
       <c r="E33" t="n">
-        <v>12.38393548321567</v>
+        <v>12.39747212224217</v>
       </c>
       <c r="F33" t="n">
-        <v>8.445050082638337</v>
+        <v>8.444151122192329</v>
       </c>
       <c r="G33" t="n">
-        <v>98.2540773852472</v>
+        <v>98.24438751161341</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.49922921233474</v>
+        <v>23.5039920203202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002897150392092007</v>
+        <v>0.002897982568112737</v>
       </c>
       <c r="D34" t="n">
-        <v>98.5528501542517</v>
+        <v>98.57277032224992</v>
       </c>
       <c r="E34" t="n">
-        <v>12.38393548321567</v>
+        <v>12.39747212224217</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.52112492535701</v>
+        <v>25.52589111007387</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>107.6490792357974</v>
+        <v>107.6689990182977</v>
       </c>
       <c r="E35" t="n">
-        <v>12.38393548321567</v>
+        <v>12.39747212224217</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.9517327402863</v>
+        <v>496.9478215119561</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3461.517464001109</v>
+        <v>3461.508838592037</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623105393097071</v>
+        <v>7.623161013903391</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.9517327402863</v>
+        <v>511.9478215119561</v>
       </c>
       <c r="C42" t="n">
-        <v>6.693503551654286</v>
+        <v>6.695024597573211</v>
       </c>
       <c r="D42" t="n">
-        <v>3443.755523667949</v>
+        <v>3443.729620379829</v>
       </c>
       <c r="E42" t="n">
-        <v>8.957425283185696</v>
+        <v>8.95789464100309</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x6.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7195333467741588</v>
+        <v>0.8012923627704267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.76008172279875</v>
+        <v>0.8308371812809251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9466526100966023</v>
+        <v>0.9644397010916769</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7100193119384354</v>
+        <v>0.6738638669629946</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.19184048520368</v>
+        <v>55.69627610526391</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.33628495618809</v>
+        <v>35.89793472433995</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493833075872784</v>
+        <v>0.849339589274917</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.56510913961791</v>
+        <v>12.59784373910693</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8291192350305873</v>
+        <v>0.8257570123625434</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.072283894773241</v>
+        <v>4.757282389185159</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149559089010243</v>
+        <v>0.8142783523921079</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.218162494624446</v>
+        <v>2.443215252631872</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3440413052750578</v>
+        <v>0.4720823041434883</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1127702416767919</v>
+        <v>0.1508559731902676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1258225276285286</v>
+        <v>0.1678710747959528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8962643161145871</v>
+        <v>0.8986418498459785</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40853.79710813431</v>
+        <v>40695.76116813373</v>
       </c>
       <c r="C2" t="n">
-        <v>41266.4617253882</v>
+        <v>41106.82946276134</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89951.30758321722</v>
+        <v>88038.40259870869</v>
       </c>
       <c r="C3" t="n">
-        <v>90859.90664971436</v>
+        <v>88927.67939263505</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38365.51561601466</v>
+        <v>38998.03008568623</v>
       </c>
       <c r="C4" t="n">
-        <v>38753.04607678248</v>
+        <v>39391.94958150124</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.4708054098793</v>
+        <v>511.6354074503514</v>
       </c>
       <c r="C5" t="n">
-        <v>515.6270761715953</v>
+        <v>516.8034418690418</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32538.2073131174</v>
+        <v>33119.41139502457</v>
       </c>
       <c r="C6" t="n">
-        <v>32866.87607385596</v>
+        <v>33453.95090406522</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37315.6317881392</v>
+        <v>37858.50160501267</v>
       </c>
       <c r="C7" t="n">
-        <v>37692.55736175677</v>
+        <v>38240.91071213401</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.59878399424781</v>
+        <v>42.33613395636516</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97.18659705009883</v>
+        <v>93.72476511190465</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.599760833688077</v>
+        <v>8.324242809764929</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.0227129503394</v>
+        <v>461.2937051670879</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.0776507242941</v>
+        <v>866.3841440127019</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.890472230528</v>
+        <v>307.5740220279519</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.6270032471754</v>
+        <v>695.6433649307812</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.1014542850379</v>
+        <v>237.6988568276615</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.221313993404</v>
+        <v>620.0109835728315</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.1793526680445</v>
+        <v>236.7751423659602</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.2313121255653</v>
+        <v>619.0187230876867</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.0596404224331</v>
+        <v>176.6233020005518</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1270450945754</v>
+        <v>554.7872747946428</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5213099662385</v>
+        <v>107.0993423536958</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.7574898167241</v>
+        <v>481.3648833369312</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.5163283388566</v>
+        <v>502.7188093130899</v>
       </c>
       <c r="C3" t="n">
-        <v>7.724572211071463</v>
+        <v>8.206578513220524</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.438306738732</v>
+        <v>3403.764151093073</v>
       </c>
       <c r="E3" t="n">
-        <v>62.46631145124336</v>
+        <v>62.28049334515846</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.7487967704228</v>
+        <v>299.6281691794287</v>
       </c>
       <c r="C4" t="n">
-        <v>8.085258255992976</v>
+        <v>8.543008223022076</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.409295312526</v>
+        <v>2750.350735140491</v>
       </c>
       <c r="E4" t="n">
-        <v>62.46631145124336</v>
+        <v>62.28049334515846</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.0403495316481</v>
+        <v>298.5531880657056</v>
       </c>
       <c r="C5" t="n">
-        <v>8.085258255992976</v>
+        <v>8.543008223022076</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.40655327078</v>
+        <v>1336.77657090261</v>
       </c>
       <c r="E5" t="n">
-        <v>62.46631145124336</v>
+        <v>62.28049334515846</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.4095097812146</v>
+        <v>167.0610263302844</v>
       </c>
       <c r="C6" t="n">
-        <v>8.085258255992976</v>
+        <v>8.543008223022076</v>
       </c>
       <c r="D6" t="n">
-        <v>703.2231778437441</v>
+        <v>710.6316321773468</v>
       </c>
       <c r="E6" t="n">
-        <v>62.46631145124336</v>
+        <v>62.28049334515846</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.7308223322282</v>
+        <v>165.1213819233454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6791558888404161</v>
+        <v>0.7030459166956022</v>
       </c>
       <c r="D7" t="n">
-        <v>691.7044354999485</v>
+        <v>697.765768088415</v>
       </c>
       <c r="E7" t="n">
-        <v>62.46631145124336</v>
+        <v>62.28049334515846</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.9402662538391</v>
+        <v>177.2289669622552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6719618199277027</v>
+        <v>0.696001923336996</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.742745605519</v>
+        <v>2793.100749325487</v>
       </c>
       <c r="E8" t="n">
-        <v>16.86275361818477</v>
+        <v>16.95868994309515</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.7308221980498</v>
+        <v>165.1213817862288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6791558888404161</v>
+        <v>0.7030459166956022</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.472211687426</v>
+        <v>2762.936077140956</v>
       </c>
       <c r="E9" t="n">
-        <v>16.86275361818477</v>
+        <v>16.95868994309515</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.7308223322282</v>
+        <v>165.1213819233454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6791558888404161</v>
+        <v>0.7030459166956022</v>
       </c>
       <c r="D10" t="n">
-        <v>721.4875687309047</v>
+        <v>721.7760249461653</v>
       </c>
       <c r="E10" t="n">
-        <v>79.32906506942814</v>
+        <v>79.23918328825361</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.7308223322282</v>
+        <v>165.1213819233454</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6791558888404161</v>
+        <v>0.7030459166956022</v>
       </c>
       <c r="D11" t="n">
-        <v>721.4875687309047</v>
+        <v>721.7760249461653</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43659691647701</v>
+        <v>80.54621463929229</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6791558888404161</v>
+        <v>0.7030459166956022</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7339163891028</v>
+        <v>251.7539761361401</v>
       </c>
       <c r="E12" t="n">
-        <v>79.43824791135719</v>
+        <v>80.5456125043913</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.84231063690333</v>
+        <v>58.1495789264136</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>251.0886866627761</v>
+        <v>244.0076496325574</v>
       </c>
       <c r="E13" t="n">
-        <v>74.72403378969054</v>
+        <v>79.23918348323488</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.84231063690333</v>
+        <v>58.1495789264136</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>251.0886866627761</v>
+        <v>244.0076496325574</v>
       </c>
       <c r="E14" t="n">
-        <v>74.72403378969054</v>
+        <v>79.23918348323488</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.95772626759305</v>
+        <v>98.4710351848143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1012650893172055</v>
+        <v>0.09600772706176661</v>
       </c>
       <c r="D15" t="n">
-        <v>418.9878367931184</v>
+        <v>412.7178014080192</v>
       </c>
       <c r="E15" t="n">
-        <v>62.32635487242715</v>
+        <v>62.65349266915693</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.77596051176823</v>
+        <v>66.5151822389949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1012663535397145</v>
+        <v>0.09601080709606147</v>
       </c>
       <c r="D16" t="n">
-        <v>279.6165170417416</v>
+        <v>278.5199917093015</v>
       </c>
       <c r="E16" t="n">
-        <v>62.32656166744836</v>
+        <v>62.65445632652243</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.21504341347014</v>
+        <v>82.40400333088022</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>348.4213867721995</v>
+        <v>345.0255619463955</v>
       </c>
       <c r="E19" t="n">
         <v>81.13434527881276</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.8628580596414</v>
+        <v>117.2361411564157</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1797077882014496</v>
+        <v>0.1818924445225588</v>
       </c>
       <c r="D20" t="n">
-        <v>2670.699053182752</v>
+        <v>2661.053023975353</v>
       </c>
       <c r="E20" t="n">
-        <v>17.82806495484786</v>
+        <v>19.65513161374644</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.2780963290005</v>
+        <v>115.6496420521468</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1707223987913771</v>
+        <v>0.1727978222964309</v>
       </c>
       <c r="D21" t="n">
-        <v>483.7723844722206</v>
+        <v>485.3478435944746</v>
       </c>
       <c r="E21" t="n">
-        <v>17.82806495484786</v>
+        <v>19.65513161374644</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.12764601609143</v>
+        <v>95.7417637125032</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>406.6734538693748</v>
+        <v>400.8707646642509</v>
       </c>
       <c r="E22" t="n">
         <v>644.0720552148754</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.08895914894397</v>
+        <v>60.98679168869939</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.4010171443439</v>
+        <v>99.90115498376417</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1065948308602164</v>
+        <v>0.1010607653281754</v>
       </c>
       <c r="D25" t="n">
-        <v>2599.126722485125</v>
+        <v>2581.213079667452</v>
       </c>
       <c r="E25" t="n">
-        <v>44.4986923253901</v>
+        <v>42.99941195347036</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.6751793651395</v>
+        <v>500.0735577795577</v>
       </c>
       <c r="C26" t="n">
-        <v>7.135144261462536</v>
+        <v>7.657966166750288</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.438306738732</v>
+        <v>3403.764151093073</v>
       </c>
       <c r="E26" t="n">
-        <v>57.86137997605589</v>
+        <v>62.28049334515846</v>
       </c>
       <c r="F26" t="n">
-        <v>6.791675700432386</v>
+        <v>6.751025230390905</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190.2832885376377</v>
+        <v>187.3089706575948</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4929129157849219</v>
+        <v>0.5181799875118118</v>
       </c>
       <c r="D27" t="n">
-        <v>2835.29779695512</v>
+        <v>2827.372847874045</v>
       </c>
       <c r="E27" t="n">
-        <v>57.86137997605589</v>
+        <v>62.28049334515846</v>
       </c>
       <c r="F27" t="n">
-        <v>7.023561177983506</v>
+        <v>6.984030010427468</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.9722551992975</v>
+        <v>174.3587859202646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5738366590669163</v>
+        <v>0.6000271399835835</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.742745605519</v>
+        <v>2793.100749325487</v>
       </c>
       <c r="E28" t="n">
-        <v>16.86275361818477</v>
+        <v>16.95868994309515</v>
       </c>
       <c r="F28" t="n">
-        <v>6.860005999013587</v>
+        <v>6.843299510809628</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.7558440670193</v>
+        <v>183.9655985643949</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4929129157849219</v>
+        <v>0.5181799875118118</v>
       </c>
       <c r="D29" t="n">
-        <v>2825.468869346218</v>
+        <v>2820.037967971637</v>
       </c>
       <c r="E29" t="n">
-        <v>74.72413359424067</v>
+        <v>79.23918328825361</v>
       </c>
       <c r="F29" t="n">
-        <v>7.00224785123033</v>
+        <v>6.968042347695222</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.8626283101941</v>
+        <v>117.2361195160252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1797178471223066</v>
+        <v>0.1818936916128881</v>
       </c>
       <c r="D30" t="n">
-        <v>2670.698133529894</v>
+        <v>2661.052940409213</v>
       </c>
       <c r="E30" t="n">
-        <v>74.72413359424067</v>
+        <v>79.23918328825361</v>
       </c>
       <c r="F30" t="n">
-        <v>7.084035244558046</v>
+        <v>7.053976321976558</v>
       </c>
       <c r="G30" t="n">
-        <v>98.614259922358</v>
+        <v>98.15224421848467</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.4005323174791</v>
+        <v>99.90109372433301</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1065930023124748</v>
+        <v>0.101060544256728</v>
       </c>
       <c r="D31" t="n">
-        <v>2599.124557527356</v>
+        <v>2581.21280950751</v>
       </c>
       <c r="E31" t="n">
-        <v>56.89647104720362</v>
+        <v>59.58510257256704</v>
       </c>
       <c r="F31" t="n">
-        <v>7.127424620737754</v>
+        <v>7.102790115668816</v>
       </c>
       <c r="G31" t="n">
-        <v>96.50864411703796</v>
+        <v>95.82565442356123</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.17586100678807</v>
+        <v>69.74541470623393</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02306789478931686</v>
+        <v>0.0308589933345354</v>
       </c>
       <c r="D32" t="n">
-        <v>2599.124557527356</v>
+        <v>2581.21280950751</v>
       </c>
       <c r="E32" t="n">
-        <v>12.39747212224217</v>
+        <v>16.58472715671245</v>
       </c>
       <c r="F32" t="n">
-        <v>7.812630127492239</v>
+        <v>7.6281536699866</v>
       </c>
       <c r="G32" t="n">
-        <v>99.35205933327556</v>
+        <v>98.09534926137175</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.5039920203202</v>
+        <v>24.92831312928757</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002897982568112737</v>
+        <v>0.003156407629661935</v>
       </c>
       <c r="D33" t="n">
-        <v>2500.865615493604</v>
+        <v>2433.895628492385</v>
       </c>
       <c r="E33" t="n">
-        <v>12.39747212224217</v>
+        <v>16.58472715671245</v>
       </c>
       <c r="F33" t="n">
-        <v>8.444151122192329</v>
+        <v>8.180830831586556</v>
       </c>
       <c r="G33" t="n">
-        <v>98.24438751161341</v>
+        <v>95.39365247131695</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.5039920203202</v>
+        <v>24.92831312928757</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002897982568112737</v>
+        <v>0.003156407629661935</v>
       </c>
       <c r="D34" t="n">
-        <v>98.57277032224992</v>
+        <v>104.5294429243213</v>
       </c>
       <c r="E34" t="n">
-        <v>12.39747212224217</v>
+        <v>16.58472715671245</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.52589111007387</v>
+        <v>26.95118471832888</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>107.6689990182977</v>
+        <v>113.6255210065712</v>
       </c>
       <c r="E35" t="n">
-        <v>12.39747212224217</v>
+        <v>16.58472715671245</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>945.3090876972303</v>
       </c>
       <c r="E3" t="n">
-        <v>456.9616189638858</v>
+        <v>456.85656569729</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.26993056243894</v>
+        <v>10.26987411662914</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537.1074364037736</v>
+        <v>537.1088794394477</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>958.1855206045661</v>
+        <v>958.188347186976</v>
       </c>
       <c r="E5" t="n">
-        <v>467.2315495263247</v>
+        <v>467.1264398139191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787254860105842</v>
+        <v>0.7787251405632051</v>
       </c>
       <c r="G5" t="n">
-        <v>0.121141046724311</v>
+        <v>0.1211404852915715</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03145984791222479</v>
+        <v>0.03146014626200156</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06212541432805169</v>
+        <v>0.06212601228224134</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548205024828321</v>
+        <v>0.006548215600980455</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.5973786478559</v>
+        <v>463.5993166404975</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>874.1400058723855</v>
+        <v>874.1433332412472</v>
       </c>
       <c r="E6" t="n">
-        <v>467.2315495263247</v>
+        <v>467.1264398139191</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787254860105842</v>
+        <v>0.7787251405632051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.121141046724311</v>
+        <v>0.1211404852915715</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03145984791222479</v>
+        <v>0.03146014626200156</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06212541432805169</v>
+        <v>0.06212601228224134</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548205024828321</v>
+        <v>0.006548215600980455</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.2958594274468</v>
+        <v>294.2751963243936</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.013941862484</v>
+        <v>685.9924944072903</v>
       </c>
       <c r="E7" t="n">
-        <v>467.2315495263247</v>
+        <v>467.1264398139191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787254860105842</v>
+        <v>0.7787251405632051</v>
       </c>
       <c r="G7" t="n">
-        <v>0.121141046724311</v>
+        <v>0.1211404852915715</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03145984791222479</v>
+        <v>0.03146014626200156</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06212541432805169</v>
+        <v>0.06212601228224134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548205024828321</v>
+        <v>0.006548215600980455</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.6370961371279</v>
+        <v>228.626395590461</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.0038113461652</v>
+        <v>614.9933546333981</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2315495263247</v>
+        <v>467.1264398139191</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787254860105842</v>
+        <v>0.7787251405632051</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121141046724311</v>
+        <v>0.1211404852915715</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03145984791222479</v>
+        <v>0.03146014626200156</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06212541432805169</v>
+        <v>0.06212601228224134</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548205024828321</v>
+        <v>0.006548215600980455</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.7152762582874</v>
+        <v>227.7045768469629</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.0138500434678</v>
+        <v>614.0033963478219</v>
       </c>
       <c r="E9" t="n">
-        <v>467.2315495263247</v>
+        <v>467.1264398139191</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787254860105842</v>
+        <v>0.7787251405632051</v>
       </c>
       <c r="G9" t="n">
-        <v>0.121141046724311</v>
+        <v>0.1211404852915715</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03145984791222479</v>
+        <v>0.03146014626200156</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06212541432805169</v>
+        <v>0.06212601228224134</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548205024828321</v>
+        <v>0.006548215600980455</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.7754434974211</v>
+        <v>168.7643354857068</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.0795241939512</v>
+        <v>551.0687407891215</v>
       </c>
       <c r="E10" t="n">
-        <v>467.2315495263247</v>
+        <v>467.1264398139191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787254860105842</v>
+        <v>0.7787251405632051</v>
       </c>
       <c r="G10" t="n">
-        <v>0.121141046724311</v>
+        <v>0.1211404852915715</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03145984791222479</v>
+        <v>0.03146014626200156</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06212541432805169</v>
+        <v>0.06212601228224134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548205024828321</v>
+        <v>0.006548215600980455</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.2945209905249</v>
+        <v>105.2945421317287</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.9900454192406</v>
+        <v>483.9910602034757</v>
       </c>
       <c r="E11" t="n">
-        <v>467.2315495263247</v>
+        <v>467.1264398139191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787254860105842</v>
+        <v>0.7787251405632051</v>
       </c>
       <c r="G11" t="n">
-        <v>0.121141046724311</v>
+        <v>0.1211404852915715</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03145984791222479</v>
+        <v>0.03146014626200156</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06212541432805169</v>
+        <v>0.06212601228224134</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548205024828321</v>
+        <v>0.006548215600980455</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.73496005325209</v>
+        <v>9.734906547758525</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5349705091868602</v>
+        <v>0.5349675688706205</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038312</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572036750220189</v>
+        <v>3.572026190304119</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944185</v>
+        <v>0.05094889585944183</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489635</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173054</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8012923627704267</v>
+        <v>0.8002526232412944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308371812809251</v>
+        <v>0.8297477591692606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9644397010916769</v>
+        <v>0.9644528887218731</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6738638669629946</v>
+        <v>0.6747919401833488</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.69627610526391</v>
+        <v>55.70011212377354</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.89793472433995</v>
+        <v>35.9013499768319</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849339589274917</v>
+        <v>0.8493392909854798</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.59784373910693</v>
+        <v>12.59805533840489</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8257570123625434</v>
+        <v>0.8257565555186526</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.757282389185159</v>
+        <v>4.757094191038579</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8142783523921079</v>
+        <v>0.8142789567691372</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.443215252631872</v>
+        <v>2.443612617498174</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4720823041434883</v>
+        <v>0.4721154297429515</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1508559731902676</v>
+        <v>0.1508667600064262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1678710747959528</v>
+        <v>0.1678829448599723</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8986418498459785</v>
+        <v>0.8986425639141667</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40695.76116813373</v>
+        <v>40695.96213156892</v>
       </c>
       <c r="C2" t="n">
-        <v>41106.82946276134</v>
+        <v>41107.03245613023</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88038.40259870869</v>
+        <v>88038.30430790607</v>
       </c>
       <c r="C3" t="n">
-        <v>88927.67939263505</v>
+        <v>88927.58010899603</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38998.03008568623</v>
+        <v>39006.72645418126</v>
       </c>
       <c r="C4" t="n">
-        <v>39391.94958150124</v>
+        <v>39400.73379210228</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>511.6354074503514</v>
+        <v>511.6220415127421</v>
       </c>
       <c r="C5" t="n">
-        <v>516.8034418690418</v>
+        <v>516.7899409219617</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33119.41139502457</v>
+        <v>33112.84075605852</v>
       </c>
       <c r="C6" t="n">
-        <v>33453.95090406522</v>
+        <v>33447.31389500861</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37858.50160501267</v>
+        <v>37855.97844629739</v>
       </c>
       <c r="C7" t="n">
-        <v>38240.91071213401</v>
+        <v>38238.36206696706</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.33613395636516</v>
+        <v>42.33675998946639</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.72476511190465</v>
+        <v>93.72421835584107</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.324242809764929</v>
+        <v>8.324163532727225</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.9425109694922</v>
+        <v>511.9559915938263</v>
       </c>
       <c r="C3" t="n">
-        <v>6.695341628216934</v>
+        <v>6.693418890494526</v>
       </c>
       <c r="D3" t="n">
-        <v>3443.712841707158</v>
+        <v>3443.7677156956</v>
       </c>
       <c r="E3" t="n">
-        <v>57.86137997605589</v>
+        <v>57.85524578733254</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.3763083978258</v>
+        <v>286.3562492469551</v>
       </c>
       <c r="C4" t="n">
-        <v>7.056812107423845</v>
+        <v>7.054724430012863</v>
       </c>
       <c r="D4" t="n">
-        <v>2771.88810602537</v>
+        <v>2771.915466692669</v>
       </c>
       <c r="E4" t="n">
-        <v>57.86137997605589</v>
+        <v>57.85524578733254</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.9114395620613</v>
+        <v>285.8906744147743</v>
       </c>
       <c r="C5" t="n">
-        <v>7.056812107423845</v>
+        <v>7.054724430012863</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.064390787952</v>
+        <v>1267.953726897054</v>
       </c>
       <c r="E5" t="n">
-        <v>57.86137997605589</v>
+        <v>57.85524578733254</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.8988445166131</v>
+        <v>164.8957741099851</v>
       </c>
       <c r="C6" t="n">
-        <v>7.056812107423845</v>
+        <v>7.054724430012863</v>
       </c>
       <c r="D6" t="n">
-        <v>700.4217584782931</v>
+        <v>700.407269580361</v>
       </c>
       <c r="E6" t="n">
-        <v>57.86137997605589</v>
+        <v>57.85524578733254</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.215593756468</v>
+        <v>158.2059407590357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5906790102913514</v>
+        <v>0.590532655057173</v>
       </c>
       <c r="D7" t="n">
-        <v>667.726071802447</v>
+        <v>667.6841881070411</v>
       </c>
       <c r="E7" t="n">
-        <v>57.86137997605589</v>
+        <v>57.85524578733254</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.8359631972125</v>
+        <v>170.8279635129608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5844531585812589</v>
+        <v>0.5842881760321628</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.074433039018</v>
+        <v>2786.066305140279</v>
       </c>
       <c r="E8" t="n">
-        <v>14.95682555828864</v>
+        <v>14.95228420089894</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.2155936335829</v>
+        <v>158.2059406361699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5906790102913514</v>
+        <v>0.590532655057173</v>
       </c>
       <c r="D9" t="n">
-        <v>2755.461222858841</v>
+        <v>2755.450420639733</v>
       </c>
       <c r="E9" t="n">
-        <v>14.95682555828864</v>
+        <v>14.95228420089894</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.215593756468</v>
+        <v>158.2059407590357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5906790102913514</v>
+        <v>0.590532655057173</v>
       </c>
       <c r="D10" t="n">
-        <v>696.7633998148078</v>
+        <v>696.7292191249676</v>
       </c>
       <c r="E10" t="n">
-        <v>72.81820553434454</v>
+        <v>72.80752998823148</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.215593756468</v>
+        <v>158.2059407590357</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5906790102913514</v>
+        <v>0.590532655057173</v>
       </c>
       <c r="D11" t="n">
-        <v>696.7633998148078</v>
+        <v>696.7292191249676</v>
       </c>
       <c r="E11" t="n">
-        <v>72.81820553434454</v>
+        <v>72.80388661906446</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.50359020669333</v>
+        <v>64.51514306148857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5906790102913514</v>
+        <v>0.590532655057173</v>
       </c>
       <c r="D12" t="n">
-        <v>270.5944536583867</v>
+        <v>270.6428112138684</v>
       </c>
       <c r="E12" t="n">
-        <v>72.81820553434454</v>
+        <v>72.80752998823148</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.50457960357926</v>
+        <v>64.51610048326711</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.5985950403295</v>
+        <v>270.6468187611229</v>
       </c>
       <c r="E13" t="n">
-        <v>72.82438078274664</v>
+        <v>72.8036038091027</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.02536947649128</v>
+        <v>64.03837110286969</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>268.5927921985415</v>
+        <v>268.6472108547921</v>
       </c>
       <c r="E14" t="n">
-        <v>63.86648614174355</v>
+        <v>63.84602983904218</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.9141077045374</v>
+        <v>102.9202811797754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1124293679943425</v>
+        <v>0.1124537026835079</v>
       </c>
       <c r="D15" t="n">
-        <v>431.4642931601732</v>
+        <v>431.4903579106416</v>
       </c>
       <c r="E15" t="n">
-        <v>59.4425731953967</v>
+        <v>59.44108212390175</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.22543185152375</v>
+        <v>67.22646132828288</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1124295162441673</v>
+        <v>0.1124540213403948</v>
       </c>
       <c r="D16" t="n">
-        <v>281.5082684880551</v>
+        <v>281.5126006121395</v>
       </c>
       <c r="E16" t="n">
-        <v>59.44344532081315</v>
+        <v>59.44244624977144</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>623.6442501170004</v>
+        <v>623.6482221792289</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>78.56103600591419</v>
+        <v>78.56153637022234</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.72831416999718</v>
+        <v>84.73161308528054</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>354.7574514297782</v>
+        <v>354.7712639880697</v>
       </c>
       <c r="E19" t="n">
-        <v>78.56103600591419</v>
+        <v>78.56153637022234</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.9956296012492</v>
+        <v>115.9941841661631</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1747452320568152</v>
+        <v>0.1747367702837623</v>
       </c>
       <c r="D20" t="n">
-        <v>2698.953739907377</v>
+        <v>2699.009464279445</v>
       </c>
       <c r="E20" t="n">
-        <v>13.60188655884136</v>
+        <v>13.59476024715985</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.4201561544686</v>
+        <v>114.4186762989269</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1660079704539744</v>
+        <v>0.1659999317695742</v>
       </c>
       <c r="D21" t="n">
-        <v>480.1353253228572</v>
+        <v>480.1290528005462</v>
       </c>
       <c r="E21" t="n">
-        <v>13.60188655884136</v>
+        <v>13.59476024715985</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.99845224079532</v>
+        <v>100.0042004326958</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>418.69351953221</v>
+        <v>418.7175872116972</v>
       </c>
       <c r="E22" t="n">
-        <v>623.6442501170004</v>
+        <v>623.6482221792289</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>623.6442501170004</v>
+        <v>623.6482221792289</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.27958724880686</v>
+        <v>61.28000281617928</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>623.6442501170004</v>
+        <v>623.6482221792289</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.3837845520885</v>
+        <v>104.3900133960539</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1183467031519395</v>
+        <v>0.1183723186142188</v>
       </c>
       <c r="D25" t="n">
-        <v>2644.819958405888</v>
+        <v>2644.911380226959</v>
       </c>
       <c r="E25" t="n">
-        <v>45.84074167643121</v>
+        <v>45.8463924263052</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>509.1406935544632</v>
+        <v>509.1547611435956</v>
       </c>
       <c r="C26" t="n">
-        <v>6.098794106919049</v>
+        <v>6.096884053228839</v>
       </c>
       <c r="D26" t="n">
-        <v>3443.712841707158</v>
+        <v>3443.7677156956</v>
       </c>
       <c r="E26" t="n">
-        <v>48.90884077160739</v>
+        <v>48.89260525144566</v>
       </c>
       <c r="F26" t="n">
-        <v>6.901919521410665</v>
+        <v>6.902127638806452</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.9554666868553</v>
+        <v>199.9720984416912</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4328350292514833</v>
+        <v>0.432720219365154</v>
       </c>
       <c r="D27" t="n">
-        <v>2859.176281593539</v>
+        <v>2859.217223846863</v>
       </c>
       <c r="E27" t="n">
-        <v>48.90884077160739</v>
+        <v>48.89260525144566</v>
       </c>
       <c r="F27" t="n">
-        <v>7.132994933087883</v>
+        <v>7.133201084079674</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.0651144525684</v>
+        <v>168.0566132788358</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4964996023874525</v>
+        <v>0.4963461372817932</v>
       </c>
       <c r="D28" t="n">
-        <v>2786.074433039018</v>
+        <v>2786.066305140279</v>
       </c>
       <c r="E28" t="n">
-        <v>14.95682555828864</v>
+        <v>14.95228420089894</v>
       </c>
       <c r="F28" t="n">
-        <v>6.911460080559723</v>
+        <v>6.911579107912186</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.8784316868463</v>
+        <v>191.8891501580534</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4328350292514833</v>
+        <v>0.432720219365154</v>
       </c>
       <c r="D29" t="n">
-        <v>2842.056416419493</v>
+        <v>2842.085495129968</v>
       </c>
       <c r="E29" t="n">
-        <v>63.86566632989603</v>
+        <v>63.8448894523446</v>
       </c>
       <c r="F29" t="n">
-        <v>7.096495930882609</v>
+        <v>7.0966778524345</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.9951818912846</v>
+        <v>115.9939214181746</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1747464849826417</v>
+        <v>0.1747393440122874</v>
       </c>
       <c r="D30" t="n">
-        <v>2698.951814835536</v>
+        <v>2699.008334372464</v>
       </c>
       <c r="E30" t="n">
-        <v>63.86566632989603</v>
+        <v>63.8448894523446</v>
       </c>
       <c r="F30" t="n">
-        <v>7.169124641302724</v>
+        <v>7.169288314397141</v>
       </c>
       <c r="G30" t="n">
-        <v>99.95023213457681</v>
+        <v>99.95287020405475</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.3831720027968</v>
+        <v>104.389417435919</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1183441843548845</v>
+        <v>0.1183698675931858</v>
       </c>
       <c r="D31" t="n">
-        <v>2644.817165706657</v>
+        <v>2644.908587253415</v>
       </c>
       <c r="E31" t="n">
-        <v>50.26383481093054</v>
+        <v>50.25019975474804</v>
       </c>
       <c r="F31" t="n">
-        <v>7.202696874125615</v>
+        <v>7.202842243273886</v>
       </c>
       <c r="G31" t="n">
-        <v>98.32432503736048</v>
+        <v>98.32795317358516</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.50956908436262</v>
+        <v>77.55448274839813</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008720875197739909</v>
+        <v>0.008685662742940135</v>
       </c>
       <c r="D32" t="n">
-        <v>2644.817165706657</v>
+        <v>2644.908587253415</v>
       </c>
       <c r="E32" t="n">
-        <v>4.423040820930396</v>
+        <v>4.403583589270738</v>
       </c>
       <c r="F32" t="n">
-        <v>8.394066363048159</v>
+        <v>8.396191065828866</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73.75174314440773</v>
+        <v>73.8932019746037</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002409656040941844</v>
+        <v>0.002408465515693303</v>
       </c>
       <c r="D33" t="n">
-        <v>2638.789519398088</v>
+        <v>2639.056522140364</v>
       </c>
       <c r="E33" t="n">
-        <v>4.423040820930396</v>
+        <v>4.403583589270738</v>
       </c>
       <c r="F33" t="n">
-        <v>8.969807954935627</v>
+        <v>8.970805436804522</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.47911475166387</v>
+        <v>20.47110775053096</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002409656040941844</v>
+        <v>0.002408465515693303</v>
       </c>
       <c r="D34" t="n">
-        <v>85.91892045973121</v>
+        <v>85.88541777676885</v>
       </c>
       <c r="E34" t="n">
-        <v>4.423040820930396</v>
+        <v>4.403583589270738</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.49870068921587</v>
+        <v>22.49068711301788</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>95.01528303902595</v>
+        <v>94.98178050011893</v>
       </c>
       <c r="E35" t="n">
-        <v>4.423040820930396</v>
+        <v>4.403583589270738</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.9478215119561</v>
+        <v>496.9503974394883</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3461.508838592037</v>
+        <v>3461.514519269553</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623161013903391</v>
+        <v>7.623138477757733</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>284.8992297912401</v>
       </c>
       <c r="E41" t="n">
-        <v>8.95789464100309</v>
+        <v>8.957573970060519</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.9478215119561</v>
+        <v>511.9503974394883</v>
       </c>
       <c r="C42" t="n">
-        <v>6.695024597573211</v>
+        <v>6.693914596469734</v>
       </c>
       <c r="D42" t="n">
-        <v>3443.729620379829</v>
+        <v>3443.747845931036</v>
       </c>
       <c r="E42" t="n">
-        <v>8.95789464100309</v>
+        <v>8.957573970060519</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980474529573586</v>
+        <v>8.980447980838527</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038312</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572036750220189</v>
+        <v>3.572026190304119</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944185</v>
+        <v>0.05094889585944183</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489635</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173054</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.891817550329199</v>
+        <v>1.89320192155783</v>
       </c>
       <c r="C2" t="n">
-        <v>2.116658843664461</v>
+        <v>2.118453390288177</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8937753743319328</v>
+        <v>0.8936717372385969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2171552736997564</v>
+        <v>0.2169062260414713</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>134.3567513761342</v>
+        <v>134.3052661267387</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.07431618953665</v>
+        <v>32.06973303590836</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.234962428048608</v>
+        <v>6.234853187700137</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.47615186585238</v>
+        <v>40.45923511652564</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.58900554378008</v>
+        <v>28.58019644749867</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849371626311633</v>
+        <v>0.8493715712050429</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.139470735033708</v>
+        <v>9.134745511718229</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8350732934694434</v>
+        <v>0.8350819363370078</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.721015061361665</v>
+        <v>2.718523099413566</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8102863641058594</v>
+        <v>0.8102685137019902</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02666052567693432</v>
+        <v>0.02577005789517581</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03289868591409441</v>
+        <v>0.03202210388306281</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04023358301020431</v>
+        <v>0.0400565936105985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0450786538113389</v>
+        <v>0.04488074856202692</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925196208961351</v>
+        <v>0.8925117092295989</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38876.02891826379</v>
+        <v>38867.05166709367</v>
       </c>
       <c r="C2" t="n">
-        <v>39268.71607905433</v>
+        <v>39259.64814857946</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87019.44806969847</v>
+        <v>87011.32917758366</v>
       </c>
       <c r="C3" t="n">
-        <v>87898.43239363482</v>
+        <v>87890.23149250874</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32846.39158007412</v>
+        <v>32833.91963850481</v>
       </c>
       <c r="C4" t="n">
-        <v>33178.17331320618</v>
+        <v>33165.5753924291</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.9157418961252</v>
+        <v>457.8113326104564</v>
       </c>
       <c r="C5" t="n">
-        <v>462.5411534304295</v>
+        <v>462.4356895055116</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29110.8535592136</v>
+        <v>29104.45717613045</v>
       </c>
       <c r="C6" t="n">
-        <v>29404.90258506425</v>
+        <v>29398.44159205096</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31032.85791357329</v>
+        <v>31020.42054171848</v>
       </c>
       <c r="C7" t="n">
-        <v>31346.3211248215</v>
+        <v>31333.75812294796</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.8783152061484</v>
+        <v>29.86349573906326</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.1026412300991</v>
+        <v>101.1172097942169</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.824773071024598</v>
+        <v>8.82591441282368</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25892.95081482154</v>
+        <v>25892.91757277955</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2403.519012869674</v>
+        <v>2402.702566515981</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17049.4001014262</v>
+        <v>17049.30639415237</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.834391663339</v>
+        <v>5906.816929447864</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.420498245902</v>
+        <v>4267.40788258558</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.81821395487</v>
+        <v>15840.77138417048</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28418.59211673378</v>
+        <v>28417.69876271991</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8110391849338057</v>
+        <v>0.8107283962739269</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.2937051670879</v>
+        <v>461.2933605758531</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.3841440127019</v>
+        <v>866.3837542662676</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.5740220279519</v>
+        <v>307.5738394824733</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>695.6433649307812</v>
+        <v>695.643165808526</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.6988568276615</v>
+        <v>237.6829723828353</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>620.0109835728315</v>
+        <v>619.9939188023114</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.7751423659602</v>
+        <v>236.7592790439143</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>619.0187230876867</v>
+        <v>619.0016842389296</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.6233020005518</v>
+        <v>176.6192565961383</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>554.7872747946428</v>
+        <v>554.7829789760068</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.0993423536958</v>
+        <v>107.0999110161959</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.3648833369312</v>
+        <v>481.3654809065448</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.7188093130899</v>
+        <v>502.7183639986433</v>
       </c>
       <c r="C3" t="n">
-        <v>8.206578513220524</v>
+        <v>8.20690635277931</v>
       </c>
       <c r="D3" t="n">
-        <v>3403.764151093073</v>
+        <v>3403.763361194393</v>
       </c>
       <c r="E3" t="n">
-        <v>62.28049334515846</v>
+        <v>62.28538036680382</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.6281691794287</v>
+        <v>299.6279931707882</v>
       </c>
       <c r="C4" t="n">
-        <v>8.543008223022076</v>
+        <v>8.542987013637974</v>
       </c>
       <c r="D4" t="n">
-        <v>2750.350735140491</v>
+        <v>2750.351070656073</v>
       </c>
       <c r="E4" t="n">
-        <v>62.28049334515846</v>
+        <v>62.28538036680382</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.5531880657056</v>
+        <v>298.5705432729053</v>
       </c>
       <c r="C5" t="n">
-        <v>8.543008223022076</v>
+        <v>8.542987013637974</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.77657090261</v>
+        <v>1336.875573970359</v>
       </c>
       <c r="E5" t="n">
-        <v>62.28049334515846</v>
+        <v>62.28538036680382</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.0610263302844</v>
+        <v>167.0550396227073</v>
       </c>
       <c r="C6" t="n">
-        <v>8.543008223022076</v>
+        <v>8.542987013637974</v>
       </c>
       <c r="D6" t="n">
-        <v>710.6316321773468</v>
+        <v>710.6057053451746</v>
       </c>
       <c r="E6" t="n">
-        <v>62.28049334515846</v>
+        <v>62.28538036680382</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.1213819233454</v>
+        <v>165.1194961787405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7030459166956022</v>
+        <v>0.7030130736038616</v>
       </c>
       <c r="D7" t="n">
-        <v>697.765768088415</v>
+        <v>697.7575438901342</v>
       </c>
       <c r="E7" t="n">
-        <v>62.28049334515846</v>
+        <v>62.28538036680382</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2289669622552</v>
+        <v>177.2310464327119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.696001923336996</v>
+        <v>0.6959551760431815</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.100749325487</v>
+        <v>2793.10783574424</v>
       </c>
       <c r="E8" t="n">
-        <v>16.95868994309515</v>
+        <v>16.95512624780777</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.1213817862288</v>
+        <v>165.1194960416281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7030459166956022</v>
+        <v>0.7030130736038616</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.936077140956</v>
+        <v>2762.934106355657</v>
       </c>
       <c r="E9" t="n">
-        <v>16.95868994309515</v>
+        <v>16.95512624780777</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.1213819233454</v>
+        <v>165.1194961787405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7030459166956022</v>
+        <v>0.7030130736038616</v>
       </c>
       <c r="D10" t="n">
-        <v>721.7760249461653</v>
+        <v>721.7595254457423</v>
       </c>
       <c r="E10" t="n">
-        <v>79.23918328825361</v>
+        <v>79.24050661461159</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.1213819233454</v>
+        <v>165.1194961787405</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7030459166956022</v>
+        <v>0.7030130736038616</v>
       </c>
       <c r="D11" t="n">
-        <v>721.7760249461653</v>
+        <v>721.7595254457423</v>
       </c>
       <c r="E11" t="n">
-        <v>80.54621463929229</v>
+        <v>80.54367960795261</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7030459166956022</v>
+        <v>0.7030130736038616</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7539761361401</v>
+        <v>251.7539485588736</v>
       </c>
       <c r="E12" t="n">
-        <v>80.5456125043913</v>
+        <v>80.5463812049173</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.1495789264136</v>
+        <v>58.1494352131424</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>244.0076496325574</v>
+        <v>244.0070485023478</v>
       </c>
       <c r="E13" t="n">
-        <v>79.23918348323488</v>
+        <v>79.24213303996329</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.1495789264136</v>
+        <v>58.1494352131424</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>244.0076496325574</v>
+        <v>244.0070485023478</v>
       </c>
       <c r="E14" t="n">
-        <v>79.23918348323488</v>
+        <v>79.24213303996329</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.4710351848143</v>
+        <v>98.47078711794938</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09600772706176661</v>
+        <v>0.09600686909205884</v>
       </c>
       <c r="D15" t="n">
-        <v>412.7178014080192</v>
+        <v>412.7167554205694</v>
       </c>
       <c r="E15" t="n">
-        <v>62.65349266915693</v>
+        <v>62.65464164973815</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.5151822389949</v>
+        <v>66.51525377150165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09601080709606147</v>
+        <v>0.0960069034323215</v>
       </c>
       <c r="D16" t="n">
-        <v>278.5199917093015</v>
+        <v>278.5202880742798</v>
       </c>
       <c r="E16" t="n">
-        <v>62.65445632652243</v>
+        <v>62.65621991227195</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.40400333088022</v>
+        <v>82.40376996373317</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>345.0255619463955</v>
+        <v>345.0245848381508</v>
       </c>
       <c r="E19" t="n">
         <v>81.13434527881276</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>117.2361411564157</v>
+        <v>117.2345481450067</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1818924445225588</v>
+        <v>0.1818928122747552</v>
       </c>
       <c r="D20" t="n">
-        <v>2661.053023975353</v>
+        <v>2661.040847032435</v>
       </c>
       <c r="E20" t="n">
-        <v>19.65513161374644</v>
+        <v>19.65553465018691</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.6496420521468</v>
+        <v>115.6497042887379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1727978222964309</v>
+        <v>0.1727981716610174</v>
       </c>
       <c r="D21" t="n">
-        <v>485.3478435944746</v>
+        <v>485.3481075140332</v>
       </c>
       <c r="E21" t="n">
-        <v>19.65513161374644</v>
+        <v>19.65553465018691</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.7417637125032</v>
+        <v>95.74153156721168</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>400.8707646642509</v>
+        <v>400.8697926719153</v>
       </c>
       <c r="E22" t="n">
         <v>644.0720552148754</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60.98679168869939</v>
+        <v>60.98676229122666</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.90115498376417</v>
+        <v>99.90090472467062</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1010607653281754</v>
+        <v>0.1010598622021672</v>
       </c>
       <c r="D25" t="n">
-        <v>2581.213079667452</v>
+        <v>2581.206951055368</v>
       </c>
       <c r="E25" t="n">
-        <v>42.99941195347036</v>
+        <v>42.99919172796621</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.0735577795577</v>
+        <v>500.0761211480966</v>
       </c>
       <c r="C26" t="n">
-        <v>7.657966166750288</v>
+        <v>7.65856080526089</v>
       </c>
       <c r="D26" t="n">
-        <v>3403.764151093073</v>
+        <v>3403.763361194393</v>
       </c>
       <c r="E26" t="n">
-        <v>62.28049334515846</v>
+        <v>62.28538036680382</v>
       </c>
       <c r="F26" t="n">
-        <v>6.751025230390905</v>
+        <v>6.750990548834098</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.3089706575948</v>
+        <v>187.3044015617658</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5181799875118118</v>
+        <v>0.5181868156892111</v>
       </c>
       <c r="D27" t="n">
-        <v>2827.372847874045</v>
+        <v>2827.362450332071</v>
       </c>
       <c r="E27" t="n">
-        <v>62.28049334515846</v>
+        <v>62.28538036680382</v>
       </c>
       <c r="F27" t="n">
-        <v>6.984030010427468</v>
+        <v>6.984001539133931</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.3587859202646</v>
+        <v>174.3610213563326</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6000271399835835</v>
+        <v>0.5999995730908541</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.100749325487</v>
+        <v>2793.10783574424</v>
       </c>
       <c r="E28" t="n">
-        <v>16.95868994309515</v>
+        <v>16.95512624780777</v>
       </c>
       <c r="F28" t="n">
-        <v>6.843299510809628</v>
+        <v>6.843335658176547</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.9655985643949</v>
+        <v>183.9635173323404</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5181799875118118</v>
+        <v>0.5181868156892111</v>
       </c>
       <c r="D29" t="n">
-        <v>2820.037967971637</v>
+        <v>2820.032975298155</v>
       </c>
       <c r="E29" t="n">
-        <v>79.23918328825361</v>
+        <v>79.24050661461159</v>
       </c>
       <c r="F29" t="n">
-        <v>6.968042347695222</v>
+        <v>6.968025541650937</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.2361195160252</v>
+        <v>117.2363830484301</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1818936916128881</v>
+        <v>0.1818952344467603</v>
       </c>
       <c r="D30" t="n">
-        <v>2661.052940409213</v>
+        <v>2661.047932462981</v>
       </c>
       <c r="E30" t="n">
-        <v>79.23918328825361</v>
+        <v>79.24050661461159</v>
       </c>
       <c r="F30" t="n">
-        <v>7.053976321976558</v>
+        <v>7.053959739027985</v>
       </c>
       <c r="G30" t="n">
-        <v>98.15224421848467</v>
+        <v>98.15199943369848</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.90109372433301</v>
+        <v>99.90197251660152</v>
       </c>
       <c r="C31" t="n">
-        <v>0.101060544256728</v>
+        <v>0.1010637156577792</v>
       </c>
       <c r="D31" t="n">
-        <v>2581.21280950751</v>
+        <v>2581.210898564342</v>
       </c>
       <c r="E31" t="n">
-        <v>59.58510257256704</v>
+        <v>59.58505669283966</v>
       </c>
       <c r="F31" t="n">
-        <v>7.102790115668816</v>
+        <v>7.102771329172241</v>
       </c>
       <c r="G31" t="n">
-        <v>95.82565442356123</v>
+        <v>95.82550398661088</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.74541470623393</v>
+        <v>69.74708130285433</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0308589933345354</v>
+        <v>0.0308612214130438</v>
       </c>
       <c r="D32" t="n">
-        <v>2581.21280950751</v>
+        <v>2581.210898564342</v>
       </c>
       <c r="E32" t="n">
-        <v>16.58472715671245</v>
+        <v>16.58591312769134</v>
       </c>
       <c r="F32" t="n">
-        <v>7.6281536699866</v>
+        <v>7.628115642186262</v>
       </c>
       <c r="G32" t="n">
-        <v>98.09534926137175</v>
+        <v>98.09514181495844</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.92831312928757</v>
+        <v>24.92871049450247</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003156407629661935</v>
+        <v>0.003156482442524761</v>
       </c>
       <c r="D33" t="n">
-        <v>2433.895628492385</v>
+        <v>2433.880293448703</v>
       </c>
       <c r="E33" t="n">
-        <v>16.58472715671245</v>
+        <v>16.58591312769134</v>
       </c>
       <c r="F33" t="n">
-        <v>8.180830831586556</v>
+        <v>8.180768967482797</v>
       </c>
       <c r="G33" t="n">
-        <v>95.39365247131695</v>
+        <v>95.39299320662056</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.92831312928757</v>
+        <v>24.92871049450247</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003156407629661935</v>
+        <v>0.003156482442524761</v>
       </c>
       <c r="D34" t="n">
-        <v>104.5294429243213</v>
+        <v>104.5311046275394</v>
       </c>
       <c r="E34" t="n">
-        <v>16.58472715671245</v>
+        <v>16.58591312769134</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.95118471832888</v>
+        <v>26.95158234456392</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6255210065712</v>
+        <v>113.6271826574275</v>
       </c>
       <c r="E35" t="n">
-        <v>16.58472715671245</v>
+        <v>16.58591312769134</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.9478215119561</v>
+        <v>496.9503974394883</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3461.508838592037</v>
+        <v>3461.514519269553</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623161013903391</v>
+        <v>7.623138477757733</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.9478215119561</v>
+        <v>511.9503974394883</v>
       </c>
       <c r="C42" t="n">
-        <v>6.695024597573211</v>
+        <v>6.693914596469734</v>
       </c>
       <c r="D42" t="n">
-        <v>3443.729620379829</v>
+        <v>3443.747845931036</v>
       </c>
       <c r="E42" t="n">
-        <v>8.95789464100309</v>
+        <v>8.957573970060519</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
